--- a/middle-to-gun/Excel/TRAILING_拖尾表.xlsx
+++ b/middle-to-gun/Excel/TRAILING_拖尾表.xlsx
@@ -34,10 +34,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -71,7 +78,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -97,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -105,6 +119,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -432,29 +449,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="16"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
+    <row customHeight="true" ht="23" r="1">
       <c r="A1" s="1" t="str">
         <v>int</v>
       </c>
@@ -486,7 +503,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="2">
+    <row customHeight="true" ht="23" r="2">
       <c r="A2" s="1" t="str">
         <v>ID</v>
       </c>
@@ -518,14 +535,14 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="3">
+    <row customHeight="true" ht="23" r="3">
       <c r="A3" s="1" t="str">
         <v>唯一ID</v>
       </c>
       <c r="B3" s="1" t="str">
         <v>拖尾Guid</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="3" t="str">
         <v>0-免费
 1-金币|钻石
 2-钻石</v>
@@ -553,7 +570,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="4">
+    <row customHeight="true" ht="23" r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -575,7 +592,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="5">
+    <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -586,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="str">
-        <v>1|8888</v>
+        <v>100|8888</v>
       </c>
       <c r="E5" s="1" t="str">
         <v>烟雾拖尾</v>
@@ -607,7 +624,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="6">
+    <row customHeight="true" ht="23" r="6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -618,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="str">
-        <v>1|8888</v>
+        <v>100|8888</v>
       </c>
       <c r="E6" s="1" t="str">
         <v>烟雾拖尾</v>
@@ -639,7 +656,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="7">
+    <row customHeight="true" ht="23" r="7">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -650,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="str">
-        <v>1|8888</v>
+        <v>100|8888</v>
       </c>
       <c r="E7" s="1" t="str">
         <v>烟雾拖尾</v>
@@ -671,7 +688,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="8">
+    <row customHeight="true" ht="23" r="8">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -682,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="str">
-        <v>1|8888</v>
+        <v>100|8888</v>
       </c>
       <c r="E8" s="1" t="str">
         <v>粒子拖尾</v>
@@ -703,7 +720,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="9">
+    <row customHeight="true" ht="23" r="9">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -714,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="str">
-        <v>1|8888</v>
+        <v>100|8888</v>
       </c>
       <c r="E9" s="1" t="str">
         <v>烟雾拖尾</v>
@@ -735,7 +752,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="10">
+    <row customHeight="true" ht="23" r="10">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -746,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="str">
-        <v>1|8888</v>
+        <v>100|8888</v>
       </c>
       <c r="E10" s="1" t="str">
         <v>光束拖尾</v>
@@ -767,7 +784,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="11">
+    <row customHeight="true" ht="23" r="11">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -778,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="str">
-        <v>1|8888</v>
+        <v>100|8888</v>
       </c>
       <c r="E11" s="1" t="str">
         <v>光束拖尾</v>
@@ -799,7 +816,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="12">
+    <row customHeight="true" ht="23" r="12">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -810,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="str">
-        <v>1|8888</v>
+        <v>100|8888</v>
       </c>
       <c r="E12" s="1" t="str">
         <v>光束拖尾</v>
@@ -831,7 +848,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="13">
+    <row customHeight="true" ht="23" r="13">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -842,7 +859,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="str">
-        <v>1|8888</v>
+        <v>100|8888</v>
       </c>
       <c r="E13" s="1" t="str">
         <v>烟雾拖尾</v>
@@ -863,7 +880,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="14">
+    <row customHeight="true" ht="23" r="14">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -874,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="str">
-        <v>1|8888</v>
+        <v>100|8888</v>
       </c>
       <c r="E14" s="1" t="str">
         <v>烟雾拖尾</v>
@@ -895,7 +912,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="15">
+    <row customHeight="true" ht="23" r="15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -906,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="str">
-        <v>1|8888</v>
+        <v>100|8888</v>
       </c>
       <c r="E15" s="1" t="str">
         <v>烟雾拖尾</v>
@@ -927,7 +944,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="16">
+    <row customHeight="true" ht="23" r="16">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -938,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="str">
-        <v>1|8888</v>
+        <v>100|8888</v>
       </c>
       <c r="E16" s="1" t="str">
         <v>烟雾拖尾</v>
@@ -959,7 +976,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="17">
+    <row customHeight="true" ht="23" r="17">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -970,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="str">
-        <v>1|8888</v>
+        <v>100|8888</v>
       </c>
       <c r="E17" s="1" t="str">
         <v>光束拖尾</v>
@@ -991,7 +1008,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="18">
+    <row customHeight="true" ht="23" r="18">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1002,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="str">
-        <v>1|8888</v>
+        <v>100|8888</v>
       </c>
       <c r="E18" s="1" t="str">
         <v>光束拖尾</v>
@@ -1023,7 +1040,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="19">
+    <row customHeight="true" ht="23" r="19">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1034,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="str">
-        <v>1|8888</v>
+        <v>100|8888</v>
       </c>
       <c r="E19" s="1" t="str">
         <v>光束拖尾</v>
@@ -1055,7 +1072,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="20">
+    <row customHeight="true" ht="23" r="20">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1066,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="str">
-        <v>1|8888</v>
+        <v>100|8888</v>
       </c>
       <c r="E20" s="1" t="str">
         <v>光束拖尾</v>
@@ -1087,7 +1104,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="21">
+    <row customHeight="true" ht="23" r="21">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1098,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="str">
-        <v>1|8888</v>
+        <v>100|8888</v>
       </c>
       <c r="E21" s="1" t="str">
         <v>光束拖尾</v>
@@ -1119,7 +1136,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="22">
+    <row customHeight="true" ht="23" r="22">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1130,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="str">
-        <v>1|8888</v>
+        <v>100|8888</v>
       </c>
       <c r="E22" s="1" t="str">
         <v>光束拖尾</v>
@@ -1151,7 +1168,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="23">
+    <row customHeight="true" ht="23" r="23">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1162,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="str">
-        <v>1|8888</v>
+        <v>100|8888</v>
       </c>
       <c r="E23" s="1" t="str">
         <v>光束拖尾</v>
@@ -1183,7 +1200,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="24">
+    <row customHeight="true" ht="23" r="24">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1194,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="str">
-        <v>1|8888</v>
+        <v>100|8888</v>
       </c>
       <c r="E24" s="1" t="str">
         <v>光束拖尾</v>
@@ -1215,7 +1232,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="25">
+    <row customHeight="true" ht="23" r="25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1226,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="str">
-        <v>1|8888</v>
+        <v>300|38888</v>
       </c>
       <c r="E25" s="1" t="str">
         <v>烟雾拖尾</v>
@@ -1247,7 +1264,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="26">
+    <row customHeight="true" ht="23" r="26">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1258,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="str">
-        <v>1|8888</v>
+        <v>300|38888</v>
       </c>
       <c r="E26" s="1" t="str">
         <v>拖尾</v>
@@ -1279,7 +1296,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="27">
+    <row customHeight="true" ht="23" r="27">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1290,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="str">
-        <v>1|8888</v>
+        <v>300|38888</v>
       </c>
       <c r="E27" s="1" t="str">
         <v>水拖尾</v>
@@ -1311,7 +1328,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="28">
+    <row customHeight="true" ht="23" r="28">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1322,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="1" t="str">
-        <v>1|8888</v>
+        <v>300|38888</v>
       </c>
       <c r="E28" s="1" t="str">
         <v>火焰拖尾</v>
@@ -1343,7 +1360,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="29">
+    <row customHeight="true" ht="23" r="29">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -1354,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="str">
-        <v>1|8888</v>
+        <v>300|38888</v>
       </c>
       <c r="E29" s="1" t="str">
         <v>烟雾拖尾</v>
@@ -1375,7 +1392,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="30">
+    <row customHeight="true" ht="23" r="30">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -1386,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="1" t="str">
-        <v>1|8888</v>
+        <v>300|38888</v>
       </c>
       <c r="E30" s="1" t="str">
         <v>烟雾拖尾</v>
@@ -1407,7 +1424,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="31">
+    <row customHeight="true" ht="23" r="31">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -1418,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="str">
-        <v>1|8888</v>
+        <v>300|38888</v>
       </c>
       <c r="E31" s="1" t="str">
         <v>拖尾</v>
@@ -1439,7 +1456,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="32">
+    <row customHeight="true" ht="23" r="32">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -1450,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="str">
-        <v>1|8888</v>
+        <v>300|38888</v>
       </c>
       <c r="E32" s="1" t="str">
         <v>拖尾</v>
@@ -1471,7 +1488,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="33">
+    <row customHeight="true" ht="23" r="33">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -1482,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="str">
-        <v>1|8888</v>
+        <v>300|38888</v>
       </c>
       <c r="E33" s="1" t="str">
         <v>光束拖尾</v>
@@ -1503,7 +1520,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="34">
+    <row customHeight="true" ht="23" r="34">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -1514,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="str">
-        <v>1|8888</v>
+        <v>300|38888</v>
       </c>
       <c r="E34" s="1" t="str">
         <v>光束拖尾</v>
@@ -1535,7 +1552,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="35">
+    <row customHeight="true" ht="23" r="35">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -1546,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="str">
-        <v>1|8888</v>
+        <v>500|68888</v>
       </c>
       <c r="E35" s="1" t="str">
         <v>烟雾拖尾</v>
@@ -1567,7 +1584,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="36">
+    <row customHeight="true" ht="23" r="36">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -1578,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="1" t="str">
-        <v>1|8888</v>
+        <v>500|68888</v>
       </c>
       <c r="E36" s="1" t="str">
         <v>拖尾</v>
@@ -1599,7 +1616,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="37">
+    <row customHeight="true" ht="23" r="37">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -1610,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="1" t="str">
-        <v>1|8888</v>
+        <v>500|68888</v>
       </c>
       <c r="E37" s="1" t="str">
         <v>光束拖尾</v>
@@ -1631,7 +1648,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="38">
+    <row customHeight="true" ht="23" r="38">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -1642,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="1" t="str">
-        <v>1|18888</v>
+        <v>500|68888</v>
       </c>
       <c r="E38" s="1" t="str">
         <v>雷拖尾</v>
@@ -1663,7 +1680,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="39">
+    <row customHeight="true" ht="23" r="39">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -1674,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="str">
-        <v>1|18888</v>
+        <v>500|68888</v>
       </c>
       <c r="E39" s="1" t="str">
         <v>彩虹拖尾</v>
@@ -1695,7 +1712,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="40">
+    <row customHeight="true" ht="23" r="40">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -1706,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="1" t="str">
-        <v>1|18888</v>
+        <v>500|68888</v>
       </c>
       <c r="E40" s="1" t="str">
         <v>胎印拖尾</v>
@@ -1727,7 +1744,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="41">
+    <row customHeight="true" ht="23" r="41">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -1738,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="1" t="str">
-        <v>1|18888</v>
+        <v>500|68888</v>
       </c>
       <c r="E41" s="1" t="str">
         <v>螺丝钉拖尾</v>
@@ -1759,7 +1776,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="42">
+    <row customHeight="true" ht="23" r="42">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -1770,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="1" t="str">
-        <v>1|18888</v>
+        <v>500|68888</v>
       </c>
       <c r="E42" s="1" t="str">
         <v>足球拖尾</v>
@@ -1791,7 +1808,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="43">
+    <row customHeight="true" ht="23" r="43">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -1802,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="1" t="str">
-        <v>1|18888</v>
+        <v>500|68888</v>
       </c>
       <c r="E43" s="1" t="str">
         <v>彩虹拖尾</v>
@@ -1823,7 +1840,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="44">
+    <row customHeight="true" ht="23" r="44">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -1834,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="1" t="str">
-        <v>1|18888</v>
+        <v>500|68888</v>
       </c>
       <c r="E44" s="1" t="str">
         <v>糖果拖尾</v>
@@ -1855,7 +1872,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="45">
+    <row customHeight="true" ht="23" r="45">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -1866,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="1" t="str">
-        <v>1|18888</v>
+        <v>800|108888</v>
       </c>
       <c r="E45" s="1" t="str">
         <v>奖杯拖尾</v>
@@ -1887,7 +1904,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="46">
+    <row customHeight="true" ht="23" r="46">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -1898,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="1" t="str">
-        <v>1|18888</v>
+        <v>800|108888</v>
       </c>
       <c r="E46" s="1" t="str">
         <v>皇冠拖尾</v>
@@ -1919,7 +1936,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="47">
+    <row customHeight="true" ht="23" r="47">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -1930,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="1" t="str">
-        <v>1|18888</v>
+        <v>800|108888</v>
       </c>
       <c r="E47" s="1" t="str">
         <v>爱心拖尾</v>
@@ -1951,7 +1968,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="48">
+    <row customHeight="true" ht="23" r="48">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -1962,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="1" t="str">
-        <v>1|18888</v>
+        <v>800|108888</v>
       </c>
       <c r="E48" s="1" t="str">
         <v>骷髅拖尾</v>
@@ -1983,7 +2000,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="49">
+    <row customHeight="true" ht="23" r="49">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -1994,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="1" t="str">
-        <v>1|18888</v>
+        <v>800|108888</v>
       </c>
       <c r="E49" s="1" t="str">
         <v>香蕉拖尾</v>
@@ -2015,7 +2032,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="50">
+    <row customHeight="true" ht="23" r="50">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -2026,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="1" t="str">
-        <v>1|18888</v>
+        <v>800|108888</v>
       </c>
       <c r="E50" s="1" t="str">
         <v>雷电拖尾</v>
@@ -2047,7 +2064,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="51">
+    <row customHeight="true" ht="23" r="51">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -2058,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="1" t="str">
-        <v>1|18888</v>
+        <v>800|108888</v>
       </c>
       <c r="E51" s="1" t="str">
         <v>雪花拖尾</v>
@@ -2079,7 +2096,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="52">
+    <row customHeight="true" ht="23" r="52">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -2090,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="1" t="str">
-        <v>1|18888</v>
+        <v>800|108888</v>
       </c>
       <c r="E52" s="1" t="str">
         <v>2023拖尾</v>
@@ -2111,7 +2128,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="53">
+    <row customHeight="true" ht="23" r="53">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -2122,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="1" t="str">
-        <v>1|18888</v>
+        <v>800|108888</v>
       </c>
       <c r="E53" s="1" t="str">
         <v>爆竹拖尾</v>
@@ -2143,7 +2160,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="54">
+    <row customHeight="true" ht="23" r="54">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -2154,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="1" t="str">
-        <v>1|18888</v>
+        <v>800|108888</v>
       </c>
       <c r="E54" s="1" t="str">
         <v>烟花拖尾</v>
@@ -2175,7 +2192,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="55">
+    <row customHeight="true" ht="23" r="55">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -2186,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="1" t="str">
-        <v>1|18888</v>
+        <v>1000|138888</v>
       </c>
       <c r="E55" s="1" t="str">
         <v>礼物拖尾</v>
@@ -2207,7 +2224,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="56">
+    <row customHeight="true" ht="23" r="56">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -2218,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="1" t="str">
-        <v>1|18888</v>
+        <v>1000|138888</v>
       </c>
       <c r="E56" s="1" t="str">
         <v>钞票拖尾</v>
@@ -2239,7 +2256,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="57">
+    <row customHeight="true" ht="23" r="57">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -2250,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="1" t="str">
-        <v>1|18888</v>
+        <v>1000|138888</v>
       </c>
       <c r="E57" s="1" t="str">
         <v>泡泡拖尾</v>
@@ -2271,7 +2288,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="58">
+    <row customHeight="true" ht="23" r="58">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -2282,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="1" t="str">
-        <v>1|18888</v>
+        <v>1000|138888</v>
       </c>
       <c r="E58" s="1" t="str">
         <v>彩带拖尾</v>
@@ -2303,7 +2320,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="59">
+    <row customHeight="true" ht="23" r="59">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -2314,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="1" t="str">
-        <v>1|18888</v>
+        <v>1000|138888</v>
       </c>
       <c r="E59" s="1" t="str">
         <v>便便拖尾</v>
@@ -2335,7 +2352,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="60">
+    <row customHeight="true" ht="23" r="60">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -2346,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="1" t="str">
-        <v>1|18888</v>
+        <v>1000|138888</v>
       </c>
       <c r="E60" s="1" t="str">
         <v>枫叶拖尾</v>
@@ -2367,7 +2384,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="61">
+    <row customHeight="true" ht="23" r="61">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -2378,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="1" t="str">
-        <v>1|18888</v>
+        <v>1000|138888</v>
       </c>
       <c r="E61" s="1" t="str">
         <v>六芒星拖尾</v>
@@ -2399,7 +2416,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="62">
+    <row customHeight="true" ht="23" r="62">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -2409,8 +2426,8 @@
       <c r="C62" s="1">
         <v>1</v>
       </c>
-      <c r="D62" s="1" t="str">
-        <v>1|18888</v>
+      <c r="D62" s="2" t="str">
+        <v>1000|138888</v>
       </c>
       <c r="E62" s="1" t="str">
         <v>蝴蝶拖尾</v>
@@ -2431,7 +2448,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="63">
+    <row customHeight="true" ht="23" r="63">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -2442,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="1" t="str">
-        <v>1|18888</v>
+        <v>1000|158888</v>
       </c>
       <c r="E63" s="1" t="str">
         <v>冰淇淋拖尾</v>
@@ -2463,7 +2480,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="64">
+    <row customHeight="true" ht="23" r="64">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -2474,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="1" t="str">
-        <v>1|18888</v>
+        <v>1000|158888</v>
       </c>
       <c r="E64" s="1" t="str">
         <v>鸟拖尾</v>
@@ -2495,7 +2512,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="65">
+    <row customHeight="true" ht="23" r="65">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -2506,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="1" t="str">
-        <v>1|18888</v>
+        <v>1000|158888</v>
       </c>
       <c r="E65" s="1" t="str">
         <v>蝙蝠拖尾</v>
@@ -2527,7 +2544,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="66">
+    <row customHeight="true" ht="23" r="66">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -2538,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="1" t="str">
-        <v>1|18888</v>
+        <v>1000|158888</v>
       </c>
       <c r="E66" s="1" t="str">
         <v>祥云拖尾</v>
@@ -2559,7 +2576,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="67">
+    <row customHeight="true" ht="23" r="67">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -2570,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="1" t="str">
-        <v>1|18888</v>
+        <v>1000|158888</v>
       </c>
       <c r="E67" s="1" t="str">
         <v>爪印</v>

--- a/middle-to-gun/Excel/TRAILING_拖尾表.xlsx
+++ b/middle-to-gun/Excel/TRAILING_拖尾表.xlsx
@@ -432,29 +432,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="16"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
+    <row customHeight="true" ht="23" r="1">
       <c r="A1" s="1" t="str">
         <v>int</v>
       </c>
@@ -486,7 +486,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="2">
+    <row customHeight="true" ht="23" r="2">
       <c r="A2" s="1" t="str">
         <v>ID</v>
       </c>
@@ -518,7 +518,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="3">
+    <row customHeight="true" ht="23" r="3">
       <c r="A3" s="1" t="str">
         <v>唯一ID</v>
       </c>
@@ -553,7 +553,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="4">
+    <row customHeight="true" ht="23" r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -575,7 +575,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="5">
+    <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -607,7 +607,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="6">
+    <row customHeight="true" ht="23" r="6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -639,7 +639,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="7">
+    <row customHeight="true" ht="23" r="7">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -671,7 +671,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="8">
+    <row customHeight="true" ht="23" r="8">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -703,7 +703,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="9">
+    <row customHeight="true" ht="23" r="9">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -735,7 +735,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="10">
+    <row customHeight="true" ht="23" r="10">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="11">
+    <row customHeight="true" ht="23" r="11">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -799,7 +799,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="12">
+    <row customHeight="true" ht="23" r="12">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -831,7 +831,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="13">
+    <row customHeight="true" ht="23" r="13">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -863,7 +863,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="14">
+    <row customHeight="true" ht="23" r="14">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -895,7 +895,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="15">
+    <row customHeight="true" ht="23" r="15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -927,7 +927,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="16">
+    <row customHeight="true" ht="23" r="16">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -959,7 +959,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="17">
+    <row customHeight="true" ht="23" r="17">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -991,7 +991,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="18">
+    <row customHeight="true" ht="23" r="18">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1023,7 +1023,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="19">
+    <row customHeight="true" ht="23" r="19">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1055,7 +1055,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="20">
+    <row customHeight="true" ht="23" r="20">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1087,7 +1087,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="21">
+    <row customHeight="true" ht="23" r="21">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1119,7 +1119,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="22">
+    <row customHeight="true" ht="23" r="22">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1151,7 +1151,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="23">
+    <row customHeight="true" ht="23" r="23">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="24">
+    <row customHeight="true" ht="23" r="24">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1215,7 +1215,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="25">
+    <row customHeight="true" ht="23" r="25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1247,7 +1247,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="26">
+    <row customHeight="true" ht="23" r="26">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1279,7 +1279,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="27">
+    <row customHeight="true" ht="23" r="27">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1311,7 +1311,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="28">
+    <row customHeight="true" ht="23" r="28">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1343,7 +1343,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="29">
+    <row customHeight="true" ht="23" r="29">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -1375,7 +1375,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="30">
+    <row customHeight="true" ht="23" r="30">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="31">
+    <row customHeight="true" ht="23" r="31">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -1439,7 +1439,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="32">
+    <row customHeight="true" ht="23" r="32">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -1471,7 +1471,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="33">
+    <row customHeight="true" ht="23" r="33">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="34">
+    <row customHeight="true" ht="23" r="34">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -1535,7 +1535,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="35">
+    <row customHeight="true" ht="23" r="35">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -1567,7 +1567,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="36">
+    <row customHeight="true" ht="23" r="36">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -1599,7 +1599,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="37">
+    <row customHeight="true" ht="23" r="37">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="38">
+    <row customHeight="true" ht="23" r="38">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E38" s="1" t="str">
         <v>雷拖尾</v>
@@ -1663,7 +1663,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="39">
+    <row customHeight="true" ht="23" r="39">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E39" s="1" t="str">
         <v>彩虹拖尾</v>
@@ -1695,7 +1695,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="40">
+    <row customHeight="true" ht="23" r="40">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E40" s="1" t="str">
         <v>胎印拖尾</v>
@@ -1727,7 +1727,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="41">
+    <row customHeight="true" ht="23" r="41">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E41" s="1" t="str">
         <v>螺丝钉拖尾</v>
@@ -1759,7 +1759,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="42">
+    <row customHeight="true" ht="23" r="42">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E42" s="1" t="str">
         <v>足球拖尾</v>
@@ -1791,7 +1791,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="43">
+    <row customHeight="true" ht="23" r="43">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E43" s="1" t="str">
         <v>彩虹拖尾</v>
@@ -1823,7 +1823,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="44">
+    <row customHeight="true" ht="23" r="44">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E44" s="1" t="str">
         <v>糖果拖尾</v>
@@ -1855,7 +1855,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="45">
+    <row customHeight="true" ht="23" r="45">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E45" s="1" t="str">
         <v>奖杯拖尾</v>
@@ -1887,7 +1887,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="46">
+    <row customHeight="true" ht="23" r="46">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E46" s="1" t="str">
         <v>皇冠拖尾</v>
@@ -1919,7 +1919,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="47">
+    <row customHeight="true" ht="23" r="47">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E47" s="1" t="str">
         <v>爱心拖尾</v>
@@ -1951,7 +1951,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="48">
+    <row customHeight="true" ht="23" r="48">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E48" s="1" t="str">
         <v>骷髅拖尾</v>
@@ -1983,7 +1983,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="49">
+    <row customHeight="true" ht="23" r="49">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E49" s="1" t="str">
         <v>香蕉拖尾</v>
@@ -2015,7 +2015,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="50">
+    <row customHeight="true" ht="23" r="50">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E50" s="1" t="str">
         <v>雷电拖尾</v>
@@ -2047,7 +2047,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="51">
+    <row customHeight="true" ht="23" r="51">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E51" s="1" t="str">
         <v>雪花拖尾</v>
@@ -2079,7 +2079,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="52">
+    <row customHeight="true" ht="23" r="52">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E52" s="1" t="str">
         <v>2023拖尾</v>
@@ -2111,7 +2111,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="53">
+    <row customHeight="true" ht="23" r="53">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E53" s="1" t="str">
         <v>爆竹拖尾</v>
@@ -2143,7 +2143,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="54">
+    <row customHeight="true" ht="23" r="54">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E54" s="1" t="str">
         <v>烟花拖尾</v>
@@ -2175,7 +2175,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="55">
+    <row customHeight="true" ht="23" r="55">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E55" s="1" t="str">
         <v>礼物拖尾</v>
@@ -2207,7 +2207,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="56">
+    <row customHeight="true" ht="23" r="56">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E56" s="1" t="str">
         <v>钞票拖尾</v>
@@ -2239,7 +2239,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="57">
+    <row customHeight="true" ht="23" r="57">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E57" s="1" t="str">
         <v>泡泡拖尾</v>
@@ -2271,7 +2271,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="58">
+    <row customHeight="true" ht="23" r="58">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E58" s="1" t="str">
         <v>彩带拖尾</v>
@@ -2303,7 +2303,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="59">
+    <row customHeight="true" ht="23" r="59">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E59" s="1" t="str">
         <v>便便拖尾</v>
@@ -2335,7 +2335,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="60">
+    <row customHeight="true" ht="23" r="60">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E60" s="1" t="str">
         <v>枫叶拖尾</v>
@@ -2367,7 +2367,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="61">
+    <row customHeight="true" ht="23" r="61">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E61" s="1" t="str">
         <v>六芒星拖尾</v>
@@ -2399,7 +2399,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="62">
+    <row customHeight="true" ht="23" r="62">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E62" s="1" t="str">
         <v>蝴蝶拖尾</v>
@@ -2431,7 +2431,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="63">
+    <row customHeight="true" ht="23" r="63">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E63" s="1" t="str">
         <v>冰淇淋拖尾</v>
@@ -2463,7 +2463,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="64">
+    <row customHeight="true" ht="23" r="64">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E64" s="1" t="str">
         <v>鸟拖尾</v>
@@ -2495,7 +2495,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="65">
+    <row customHeight="true" ht="23" r="65">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E65" s="1" t="str">
         <v>蝙蝠拖尾</v>
@@ -2527,7 +2527,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="66">
+    <row customHeight="true" ht="23" r="66">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E66" s="1" t="str">
         <v>祥云拖尾</v>
@@ -2559,7 +2559,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="67">
+    <row customHeight="true" ht="23" r="67">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|8888</v>
       </c>
       <c r="E67" s="1" t="str">
         <v>爪印</v>

--- a/middle-to-gun/Excel/TRAILING_拖尾表.xlsx
+++ b/middle-to-gun/Excel/TRAILING_拖尾表.xlsx
@@ -34,17 +34,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,14 +71,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -111,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -119,9 +105,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -542,7 +525,7 @@
       <c r="B3" s="1" t="str">
         <v>拖尾Guid</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="2" t="str">
         <v>0-免费
 1-金币|钻石
 2-钻石</v>
@@ -603,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="str">
-        <v>100|8888</v>
+        <v>1|8888</v>
       </c>
       <c r="E5" s="1" t="str">
         <v>烟雾拖尾</v>
@@ -635,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="str">
-        <v>100|8888</v>
+        <v>1|8888</v>
       </c>
       <c r="E6" s="1" t="str">
         <v>烟雾拖尾</v>
@@ -667,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="str">
-        <v>100|8888</v>
+        <v>1|8888</v>
       </c>
       <c r="E7" s="1" t="str">
         <v>烟雾拖尾</v>
@@ -699,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="str">
-        <v>100|8888</v>
+        <v>1|8888</v>
       </c>
       <c r="E8" s="1" t="str">
         <v>粒子拖尾</v>
@@ -731,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="str">
-        <v>100|8888</v>
+        <v>1|8888</v>
       </c>
       <c r="E9" s="1" t="str">
         <v>烟雾拖尾</v>
@@ -763,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="str">
-        <v>100|8888</v>
+        <v>1|8888</v>
       </c>
       <c r="E10" s="1" t="str">
         <v>光束拖尾</v>
@@ -795,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="str">
-        <v>100|8888</v>
+        <v>1|8888</v>
       </c>
       <c r="E11" s="1" t="str">
         <v>光束拖尾</v>
@@ -827,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="str">
-        <v>100|8888</v>
+        <v>1|8888</v>
       </c>
       <c r="E12" s="1" t="str">
         <v>光束拖尾</v>
@@ -859,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="str">
-        <v>100|8888</v>
+        <v>1|8888</v>
       </c>
       <c r="E13" s="1" t="str">
         <v>烟雾拖尾</v>
@@ -891,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="str">
-        <v>100|8888</v>
+        <v>1|8888</v>
       </c>
       <c r="E14" s="1" t="str">
         <v>烟雾拖尾</v>
@@ -923,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="str">
-        <v>100|8888</v>
+        <v>1|8888</v>
       </c>
       <c r="E15" s="1" t="str">
         <v>烟雾拖尾</v>
@@ -955,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="str">
-        <v>100|8888</v>
+        <v>1|8888</v>
       </c>
       <c r="E16" s="1" t="str">
         <v>烟雾拖尾</v>
@@ -987,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="str">
-        <v>100|8888</v>
+        <v>1|8888</v>
       </c>
       <c r="E17" s="1" t="str">
         <v>光束拖尾</v>
@@ -1019,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="str">
-        <v>100|8888</v>
+        <v>1|8888</v>
       </c>
       <c r="E18" s="1" t="str">
         <v>光束拖尾</v>
@@ -1051,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="str">
-        <v>100|8888</v>
+        <v>1|8888</v>
       </c>
       <c r="E19" s="1" t="str">
         <v>光束拖尾</v>
@@ -1083,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="str">
-        <v>100|8888</v>
+        <v>1|8888</v>
       </c>
       <c r="E20" s="1" t="str">
         <v>光束拖尾</v>
@@ -1115,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="str">
-        <v>100|8888</v>
+        <v>1|8888</v>
       </c>
       <c r="E21" s="1" t="str">
         <v>光束拖尾</v>
@@ -1147,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="str">
-        <v>100|8888</v>
+        <v>1|8888</v>
       </c>
       <c r="E22" s="1" t="str">
         <v>光束拖尾</v>
@@ -1179,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="str">
-        <v>100|8888</v>
+        <v>1|8888</v>
       </c>
       <c r="E23" s="1" t="str">
         <v>光束拖尾</v>
@@ -1211,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="str">
-        <v>100|8888</v>
+        <v>1|8888</v>
       </c>
       <c r="E24" s="1" t="str">
         <v>光束拖尾</v>
@@ -1243,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="str">
-        <v>300|38888</v>
+        <v>1|8888</v>
       </c>
       <c r="E25" s="1" t="str">
         <v>烟雾拖尾</v>
@@ -1275,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="str">
-        <v>300|38888</v>
+        <v>1|8888</v>
       </c>
       <c r="E26" s="1" t="str">
         <v>拖尾</v>
@@ -1307,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="str">
-        <v>300|38888</v>
+        <v>1|8888</v>
       </c>
       <c r="E27" s="1" t="str">
         <v>水拖尾</v>
@@ -1339,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="1" t="str">
-        <v>300|38888</v>
+        <v>1|8888</v>
       </c>
       <c r="E28" s="1" t="str">
         <v>火焰拖尾</v>
@@ -1371,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="str">
-        <v>300|38888</v>
+        <v>1|8888</v>
       </c>
       <c r="E29" s="1" t="str">
         <v>烟雾拖尾</v>
@@ -1403,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="1" t="str">
-        <v>300|38888</v>
+        <v>1|8888</v>
       </c>
       <c r="E30" s="1" t="str">
         <v>烟雾拖尾</v>
@@ -1435,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="str">
-        <v>300|38888</v>
+        <v>1|8888</v>
       </c>
       <c r="E31" s="1" t="str">
         <v>拖尾</v>
@@ -1467,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="str">
-        <v>300|38888</v>
+        <v>1|8888</v>
       </c>
       <c r="E32" s="1" t="str">
         <v>拖尾</v>
@@ -1499,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="str">
-        <v>300|38888</v>
+        <v>1|8888</v>
       </c>
       <c r="E33" s="1" t="str">
         <v>光束拖尾</v>
@@ -1531,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="str">
-        <v>300|38888</v>
+        <v>1|8888</v>
       </c>
       <c r="E34" s="1" t="str">
         <v>光束拖尾</v>
@@ -1563,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="str">
-        <v>500|68888</v>
+        <v>1|8888</v>
       </c>
       <c r="E35" s="1" t="str">
         <v>烟雾拖尾</v>
@@ -1595,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="1" t="str">
-        <v>500|68888</v>
+        <v>1|8888</v>
       </c>
       <c r="E36" s="1" t="str">
         <v>拖尾</v>
@@ -1627,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="1" t="str">
-        <v>500|68888</v>
+        <v>1|8888</v>
       </c>
       <c r="E37" s="1" t="str">
         <v>光束拖尾</v>
@@ -1659,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="1" t="str">
-        <v>500|68888</v>
+        <v>1|8888</v>
       </c>
       <c r="E38" s="1" t="str">
         <v>雷拖尾</v>
@@ -1691,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="str">
-        <v>500|68888</v>
+        <v>1|8888</v>
       </c>
       <c r="E39" s="1" t="str">
         <v>彩虹拖尾</v>
@@ -1723,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="1" t="str">
-        <v>500|68888</v>
+        <v>1|8888</v>
       </c>
       <c r="E40" s="1" t="str">
         <v>胎印拖尾</v>
@@ -1755,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="1" t="str">
-        <v>500|68888</v>
+        <v>1|8888</v>
       </c>
       <c r="E41" s="1" t="str">
         <v>螺丝钉拖尾</v>
@@ -1787,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="1" t="str">
-        <v>500|68888</v>
+        <v>1|8888</v>
       </c>
       <c r="E42" s="1" t="str">
         <v>足球拖尾</v>
@@ -1819,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="1" t="str">
-        <v>500|68888</v>
+        <v>1|8888</v>
       </c>
       <c r="E43" s="1" t="str">
         <v>彩虹拖尾</v>
@@ -1851,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="1" t="str">
-        <v>500|68888</v>
+        <v>1|8888</v>
       </c>
       <c r="E44" s="1" t="str">
         <v>糖果拖尾</v>
@@ -1883,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="1" t="str">
-        <v>800|108888</v>
+        <v>1|8888</v>
       </c>
       <c r="E45" s="1" t="str">
         <v>奖杯拖尾</v>
@@ -1915,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="1" t="str">
-        <v>800|108888</v>
+        <v>1|8888</v>
       </c>
       <c r="E46" s="1" t="str">
         <v>皇冠拖尾</v>
@@ -1947,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="1" t="str">
-        <v>800|108888</v>
+        <v>1|8888</v>
       </c>
       <c r="E47" s="1" t="str">
         <v>爱心拖尾</v>
@@ -1979,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="1" t="str">
-        <v>800|108888</v>
+        <v>1|8888</v>
       </c>
       <c r="E48" s="1" t="str">
         <v>骷髅拖尾</v>
@@ -2011,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="1" t="str">
-        <v>800|108888</v>
+        <v>1|8888</v>
       </c>
       <c r="E49" s="1" t="str">
         <v>香蕉拖尾</v>
@@ -2043,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="1" t="str">
-        <v>800|108888</v>
+        <v>1|8888</v>
       </c>
       <c r="E50" s="1" t="str">
         <v>雷电拖尾</v>
@@ -2075,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="1" t="str">
-        <v>800|108888</v>
+        <v>1|8888</v>
       </c>
       <c r="E51" s="1" t="str">
         <v>雪花拖尾</v>
@@ -2107,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="1" t="str">
-        <v>800|108888</v>
+        <v>1|8888</v>
       </c>
       <c r="E52" s="1" t="str">
         <v>2023拖尾</v>
@@ -2139,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="1" t="str">
-        <v>800|108888</v>
+        <v>1|8888</v>
       </c>
       <c r="E53" s="1" t="str">
         <v>爆竹拖尾</v>
@@ -2171,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="1" t="str">
-        <v>800|108888</v>
+        <v>1|8888</v>
       </c>
       <c r="E54" s="1" t="str">
         <v>烟花拖尾</v>
@@ -2203,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="1" t="str">
-        <v>1000|138888</v>
+        <v>1|8888</v>
       </c>
       <c r="E55" s="1" t="str">
         <v>礼物拖尾</v>
@@ -2235,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="1" t="str">
-        <v>1000|138888</v>
+        <v>1|8888</v>
       </c>
       <c r="E56" s="1" t="str">
         <v>钞票拖尾</v>
@@ -2267,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="1" t="str">
-        <v>1000|138888</v>
+        <v>1|8888</v>
       </c>
       <c r="E57" s="1" t="str">
         <v>泡泡拖尾</v>
@@ -2299,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="1" t="str">
-        <v>1000|138888</v>
+        <v>1|8888</v>
       </c>
       <c r="E58" s="1" t="str">
         <v>彩带拖尾</v>
@@ -2331,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="1" t="str">
-        <v>1000|138888</v>
+        <v>1|8888</v>
       </c>
       <c r="E59" s="1" t="str">
         <v>便便拖尾</v>
@@ -2363,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="1" t="str">
-        <v>1000|138888</v>
+        <v>1|8888</v>
       </c>
       <c r="E60" s="1" t="str">
         <v>枫叶拖尾</v>
@@ -2395,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="1" t="str">
-        <v>1000|138888</v>
+        <v>1|8888</v>
       </c>
       <c r="E61" s="1" t="str">
         <v>六芒星拖尾</v>
@@ -2426,8 +2409,8 @@
       <c r="C62" s="1">
         <v>1</v>
       </c>
-      <c r="D62" s="2" t="str">
-        <v>1000|138888</v>
+      <c r="D62" s="1" t="str">
+        <v>1|8888</v>
       </c>
       <c r="E62" s="1" t="str">
         <v>蝴蝶拖尾</v>
@@ -2459,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="1" t="str">
-        <v>1000|158888</v>
+        <v>1|8888</v>
       </c>
       <c r="E63" s="1" t="str">
         <v>冰淇淋拖尾</v>
@@ -2491,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="1" t="str">
-        <v>1000|158888</v>
+        <v>1|8888</v>
       </c>
       <c r="E64" s="1" t="str">
         <v>鸟拖尾</v>
@@ -2523,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="1" t="str">
-        <v>1000|158888</v>
+        <v>1|8888</v>
       </c>
       <c r="E65" s="1" t="str">
         <v>蝙蝠拖尾</v>
@@ -2555,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="1" t="str">
-        <v>1000|158888</v>
+        <v>1|8888</v>
       </c>
       <c r="E66" s="1" t="str">
         <v>祥云拖尾</v>
@@ -2587,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="1" t="str">
-        <v>1000|158888</v>
+        <v>1|8888</v>
       </c>
       <c r="E67" s="1" t="str">
         <v>爪印</v>
